--- a/InputData/bldgs/PEUDfSbQL/Perc E Use Difference from Std by Qual Level.xlsx
+++ b/InputData/bldgs/PEUDfSbQL/Perc E Use Difference from Std by Qual Level.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Katelyn\Desktop\eps-us-2.1.1.2\eps-us-2.1.1.2\InputData\bldgs\PEUDfSbQL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\bldgs\PEUDfSbQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E78A0F17-D09B-4819-9CDD-84B8D87124BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="20115" windowHeight="11310"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -18,17 +17,7 @@
     <sheet name="Calculations" sheetId="4" r:id="rId3"/>
     <sheet name="PEUDfSbQL" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -371,7 +360,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -633,23 +622,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -685,23 +657,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -877,24 +832,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.54296875" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -902,77 +857,77 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>93</v>
       </c>
@@ -984,24 +939,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="29.26953125" customWidth="1"/>
-    <col min="3" max="3" width="24.453125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="24.7265625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="21.1796875" customWidth="1"/>
-    <col min="6" max="6" width="30.26953125" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" customWidth="1"/>
+    <col min="6" max="6" width="30.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -1021,7 +976,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>99</v>
       </c>
@@ -1041,7 +996,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>99</v>
       </c>
@@ -1060,7 +1015,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>100</v>
       </c>
@@ -1076,7 +1031,7 @@
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>97</v>
       </c>
@@ -1096,7 +1051,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
         <v>97</v>
       </c>
@@ -1114,7 +1069,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
         <v>97</v>
       </c>
@@ -1134,7 +1089,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
         <v>97</v>
       </c>
@@ -1152,7 +1107,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
         <v>97</v>
       </c>
@@ -1172,7 +1127,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
         <v>97</v>
       </c>
@@ -1190,7 +1145,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>101</v>
       </c>
@@ -1206,11 +1161,11 @@
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
     </row>
-    <row r="13" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C13" s="25"/>
       <c r="D13" s="25"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>98</v>
       </c>
@@ -1232,7 +1187,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="31" t="s">
         <v>98</v>
       </c>
@@ -1254,7 +1209,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>102</v>
       </c>
@@ -1270,11 +1225,11 @@
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
     </row>
-    <row r="17" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>36</v>
       </c>
@@ -1294,7 +1249,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>38</v>
       </c>
@@ -1310,11 +1265,11 @@
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
     </row>
-    <row r="20" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="35"/>
       <c r="D20" s="35"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -1334,7 +1289,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>39</v>
       </c>
@@ -1354,7 +1309,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>39</v>
       </c>
@@ -1374,7 +1329,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
         <v>39</v>
       </c>
@@ -1394,7 +1349,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
         <v>39</v>
       </c>
@@ -1411,7 +1366,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
         <v>39</v>
       </c>
@@ -1429,7 +1384,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>39</v>
       </c>
@@ -1447,7 +1402,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
         <v>39</v>
       </c>
@@ -1465,7 +1420,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
         <v>39</v>
       </c>
@@ -1483,7 +1438,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>74</v>
       </c>
@@ -1499,11 +1454,11 @@
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
     </row>
-    <row r="31" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="35"/>
       <c r="D31" s="35"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>77</v>
       </c>
@@ -1521,7 +1476,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="31" t="s">
         <v>77</v>
       </c>
@@ -1543,7 +1498,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="31" t="s">
         <v>77</v>
       </c>
@@ -1563,7 +1518,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="31" t="s">
         <v>77</v>
       </c>
@@ -1585,7 +1540,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="31" t="s">
         <v>77</v>
       </c>
@@ -1605,7 +1560,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="31" t="s">
         <v>77</v>
       </c>
@@ -1627,7 +1582,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="31" t="s">
         <v>77</v>
       </c>
@@ -1647,7 +1602,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>91</v>
       </c>
@@ -1665,31 +1620,31 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E6" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="E7" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="E2" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="E8" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="E3" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="E9" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="E10" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="E11" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="E21" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="F21" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="F22" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="E23" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="E25" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="F26" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="E35" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink ref="E36" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
-    <hyperlink ref="E37" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
-    <hyperlink ref="E38" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
-    <hyperlink ref="F23" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
-    <hyperlink ref="E24" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
-    <hyperlink ref="F27" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
-    <hyperlink ref="F28" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
-    <hyperlink ref="F29" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
-    <hyperlink ref="E32" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
-    <hyperlink ref="E33" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="E6" r:id="rId1"/>
+    <hyperlink ref="E7" r:id="rId2"/>
+    <hyperlink ref="E2" r:id="rId3"/>
+    <hyperlink ref="E8" r:id="rId4"/>
+    <hyperlink ref="E3" r:id="rId5"/>
+    <hyperlink ref="E9" r:id="rId6"/>
+    <hyperlink ref="E10" r:id="rId7"/>
+    <hyperlink ref="E11" r:id="rId8"/>
+    <hyperlink ref="E21" r:id="rId9"/>
+    <hyperlink ref="F21" r:id="rId10"/>
+    <hyperlink ref="F22" r:id="rId11"/>
+    <hyperlink ref="E23" r:id="rId12"/>
+    <hyperlink ref="E25" r:id="rId13"/>
+    <hyperlink ref="F26" r:id="rId14"/>
+    <hyperlink ref="E35" r:id="rId15"/>
+    <hyperlink ref="E36" r:id="rId16"/>
+    <hyperlink ref="E37" r:id="rId17"/>
+    <hyperlink ref="E38" r:id="rId18"/>
+    <hyperlink ref="F23" r:id="rId19"/>
+    <hyperlink ref="E24" r:id="rId20"/>
+    <hyperlink ref="F27" r:id="rId21"/>
+    <hyperlink ref="F28" r:id="rId22"/>
+    <hyperlink ref="F29" r:id="rId23"/>
+    <hyperlink ref="E32" r:id="rId24"/>
+    <hyperlink ref="E33" r:id="rId25"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -1699,26 +1654,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" style="20" customWidth="1"/>
-    <col min="2" max="2" width="18.1796875" style="20" customWidth="1"/>
-    <col min="3" max="16384" width="9.1796875" style="20"/>
+    <col min="2" max="2" width="18.140625" style="20" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>84</v>
       </c>
@@ -1732,7 +1687,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
         <v>90</v>
       </c>
@@ -1746,7 +1701,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
         <v>86</v>
       </c>
@@ -1761,7 +1716,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
         <v>73</v>
       </c>
@@ -1770,12 +1725,12 @@
         <v>0.57547169811320753</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
         <v>68</v>
       </c>
@@ -1789,7 +1744,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
         <v>70</v>
       </c>
@@ -1803,7 +1758,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
         <v>73</v>
       </c>
@@ -1814,18 +1769,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D8" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="D9" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="D2" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="D3" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="D4" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="D8" r:id="rId1"/>
+    <hyperlink ref="D9" r:id="rId2"/>
+    <hyperlink ref="D2" r:id="rId3"/>
+    <hyperlink ref="D3" r:id="rId4"/>
+    <hyperlink ref="D4" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -1833,14 +1788,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.453125" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
     <col min="2" max="3" width="19" style="9" customWidth="1"/>
-    <col min="4" max="4" width="15.81640625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
         <v>110</v>
       </c>
@@ -1854,7 +1809,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>99</v>
       </c>
@@ -1871,7 +1826,7 @@
         <v>-0.06</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>97</v>
       </c>
@@ -1888,7 +1843,7 @@
         <v>-0.43333333333333335</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>98</v>
       </c>
@@ -1905,7 +1860,7 @@
         <v>-0.11749999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
         <v>36</v>
       </c>
@@ -1922,7 +1877,7 @@
         <v>-0.57999999999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
         <v>39</v>
       </c>
@@ -1939,7 +1894,7 @@
         <v>-0.35250000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
         <v>77</v>
       </c>

--- a/InputData/bldgs/PEUDfSbQL/Perc E Use Difference from Std by Qual Level.xlsx
+++ b/InputData/bldgs/PEUDfSbQL/Perc E Use Difference from Std by Qual Level.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\bldgs\PEUDfSbQL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/or/bldgs/peudfsbql/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A795BE-8AB8-F147-8E11-ECEB09900BA4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="20115" windowHeight="11310"/>
+    <workbookView xWindow="480" yWindow="460" windowWidth="20120" windowHeight="11320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,18 @@
     <sheet name="Calculations" sheetId="4" r:id="rId3"/>
     <sheet name="PEUDfSbQL" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -360,7 +372,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -451,7 +463,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -527,6 +539,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -622,6 +635,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -657,6 +687,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -832,24 +879,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="43">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -857,77 +907,77 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>93</v>
       </c>
@@ -939,24 +989,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="29.28515625" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="21.140625" customWidth="1"/>
-    <col min="6" max="6" width="30.28515625" customWidth="1"/>
+    <col min="2" max="2" width="29.33203125" customWidth="1"/>
+    <col min="3" max="3" width="24.5" style="6" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="21.1640625" customWidth="1"/>
+    <col min="6" max="6" width="30.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -976,7 +1026,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>99</v>
       </c>
@@ -996,7 +1046,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="31" t="s">
         <v>99</v>
       </c>
@@ -1015,7 +1065,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>100</v>
       </c>
@@ -1031,7 +1081,7 @@
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>97</v>
       </c>
@@ -1051,7 +1101,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="31" t="s">
         <v>97</v>
       </c>
@@ -1069,7 +1119,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="31" t="s">
         <v>97</v>
       </c>
@@ -1089,7 +1139,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="31" t="s">
         <v>97</v>
       </c>
@@ -1107,7 +1157,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="31" t="s">
         <v>97</v>
       </c>
@@ -1127,7 +1177,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="31" t="s">
         <v>97</v>
       </c>
@@ -1145,7 +1195,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>101</v>
       </c>
@@ -1161,11 +1211,11 @@
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
     </row>
-    <row r="13" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C13" s="25"/>
       <c r="D13" s="25"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>98</v>
       </c>
@@ -1187,7 +1237,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="31" t="s">
         <v>98</v>
       </c>
@@ -1209,7 +1259,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>102</v>
       </c>
@@ -1225,11 +1275,11 @@
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
     </row>
-    <row r="17" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
         <v>36</v>
       </c>
@@ -1249,7 +1299,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
         <v>38</v>
       </c>
@@ -1265,11 +1315,11 @@
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
     </row>
-    <row r="20" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C20" s="35"/>
       <c r="D20" s="35"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -1289,7 +1339,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
         <v>39</v>
       </c>
@@ -1309,7 +1359,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
         <v>39</v>
       </c>
@@ -1329,7 +1379,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
         <v>39</v>
       </c>
@@ -1349,7 +1399,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
         <v>39</v>
       </c>
@@ -1366,7 +1416,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
         <v>39</v>
       </c>
@@ -1384,7 +1434,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
         <v>39</v>
       </c>
@@ -1402,7 +1452,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
         <v>39</v>
       </c>
@@ -1420,7 +1470,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="16" t="s">
         <v>39</v>
       </c>
@@ -1438,7 +1488,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
         <v>74</v>
       </c>
@@ -1454,11 +1504,11 @@
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
     </row>
-    <row r="31" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C31" s="35"/>
       <c r="D31" s="35"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>77</v>
       </c>
@@ -1476,7 +1526,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="31" t="s">
         <v>77</v>
       </c>
@@ -1498,7 +1548,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="31" t="s">
         <v>77</v>
       </c>
@@ -1518,7 +1568,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="31" t="s">
         <v>77</v>
       </c>
@@ -1540,7 +1590,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="31" t="s">
         <v>77</v>
       </c>
@@ -1560,7 +1610,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="31" t="s">
         <v>77</v>
       </c>
@@ -1582,7 +1632,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="31" t="s">
         <v>77</v>
       </c>
@@ -1602,7 +1652,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
         <v>91</v>
       </c>
@@ -1620,31 +1670,31 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E6" r:id="rId1"/>
-    <hyperlink ref="E7" r:id="rId2"/>
-    <hyperlink ref="E2" r:id="rId3"/>
-    <hyperlink ref="E8" r:id="rId4"/>
-    <hyperlink ref="E3" r:id="rId5"/>
-    <hyperlink ref="E9" r:id="rId6"/>
-    <hyperlink ref="E10" r:id="rId7"/>
-    <hyperlink ref="E11" r:id="rId8"/>
-    <hyperlink ref="E21" r:id="rId9"/>
-    <hyperlink ref="F21" r:id="rId10"/>
-    <hyperlink ref="F22" r:id="rId11"/>
-    <hyperlink ref="E23" r:id="rId12"/>
-    <hyperlink ref="E25" r:id="rId13"/>
-    <hyperlink ref="F26" r:id="rId14"/>
-    <hyperlink ref="E35" r:id="rId15"/>
-    <hyperlink ref="E36" r:id="rId16"/>
-    <hyperlink ref="E37" r:id="rId17"/>
-    <hyperlink ref="E38" r:id="rId18"/>
-    <hyperlink ref="F23" r:id="rId19"/>
-    <hyperlink ref="E24" r:id="rId20"/>
-    <hyperlink ref="F27" r:id="rId21"/>
-    <hyperlink ref="F28" r:id="rId22"/>
-    <hyperlink ref="F29" r:id="rId23"/>
-    <hyperlink ref="E32" r:id="rId24"/>
-    <hyperlink ref="E33" r:id="rId25"/>
+    <hyperlink ref="E6" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="E7" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="E2" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="E8" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="E3" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="E9" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="E10" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="E11" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="E21" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="F21" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="F22" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="E23" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="E25" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="F26" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="E35" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="E36" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="E37" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="E38" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="F23" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="E24" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="F27" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="F28" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="F29" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="E32" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="E33" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -1654,26 +1704,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25" style="20" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" style="20" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="20"/>
+    <col min="2" max="2" width="18.1640625" style="20" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
         <v>84</v>
       </c>
@@ -1687,7 +1737,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="s">
         <v>90</v>
       </c>
@@ -1701,7 +1751,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
         <v>86</v>
       </c>
@@ -1716,7 +1766,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
         <v>73</v>
       </c>
@@ -1725,12 +1775,12 @@
         <v>0.57547169811320753</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="23" t="s">
         <v>68</v>
       </c>
@@ -1744,7 +1794,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="s">
         <v>70</v>
       </c>
@@ -1758,7 +1808,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="s">
         <v>73</v>
       </c>
@@ -1769,18 +1819,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D8" r:id="rId1"/>
-    <hyperlink ref="D9" r:id="rId2"/>
-    <hyperlink ref="D2" r:id="rId3"/>
-    <hyperlink ref="D3" r:id="rId4"/>
-    <hyperlink ref="D4" r:id="rId5"/>
+    <hyperlink ref="D8" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="D9" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="D2" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="D3" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="D4" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -1788,14 +1838,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" customWidth="1"/>
+    <col min="1" max="1" width="26.5" customWidth="1"/>
     <col min="2" max="3" width="19" style="9" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="42" t="s">
         <v>110</v>
       </c>
@@ -1809,7 +1859,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="24" t="s">
         <v>99</v>
       </c>
@@ -1826,7 +1876,7 @@
         <v>-0.06</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
         <v>97</v>
       </c>
@@ -1843,7 +1893,7 @@
         <v>-0.43333333333333335</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="24" t="s">
         <v>98</v>
       </c>
@@ -1860,7 +1910,7 @@
         <v>-0.11749999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="24" t="s">
         <v>36</v>
       </c>
@@ -1877,7 +1927,7 @@
         <v>-0.57999999999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="24" t="s">
         <v>39</v>
       </c>
@@ -1894,7 +1944,7 @@
         <v>-0.35250000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="24" t="s">
         <v>77</v>
       </c>

--- a/InputData/bldgs/PEUDfSbQL/Perc E Use Difference from Std by Qual Level.xlsx
+++ b/InputData/bldgs/PEUDfSbQL/Perc E Use Difference from Std by Qual Level.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/or/bldgs/peudfsbql/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/bldgs/peudfsbql/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A795BE-8AB8-F147-8E11-ECEB09900BA4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4633E85-56BB-8843-96A0-7EB10A664541}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="460" windowWidth="20120" windowHeight="11320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
